--- a/Docs/TemasInvestigación.xlsx
+++ b/Docs/TemasInvestigación.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nro.</t>
   </si>
@@ -46,7 +46,16 @@
     <t>Integrantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterprise JavaBeans </t>
+    <t>Enterprise JavaBeans - EJB</t>
+  </si>
+  <si>
+    <t>GRUPO 01</t>
+  </si>
+  <si>
+    <t>GRUPO 05</t>
+  </si>
+  <si>
+    <t>GRUPO 03</t>
   </si>
 </sst>
 </file>
@@ -431,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +469,9 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -487,7 +498,9 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -496,7 +509,9 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">

--- a/Docs/TemasInvestigación.xlsx
+++ b/Docs/TemasInvestigación.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nro.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>GRUPO 03</t>
+  </si>
+  <si>
+    <t>GRUPO 02</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,9 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">

--- a/Docs/TemasInvestigación.xlsx
+++ b/Docs/TemasInvestigación.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nro.</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>GRUPO 02</t>
+  </si>
+  <si>
+    <t>GRUPO 04</t>
   </si>
 </sst>
 </file>
@@ -444,14 +447,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +546,9 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/TemasInvestigación.xlsx
+++ b/Docs/TemasInvestigación.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -144,8 +147,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -447,17 +478,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -479,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -488,7 +519,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -499,7 +530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -510,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -521,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -530,7 +561,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -539,7 +570,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
